--- a/arc/arc_Libro5.xlsx
+++ b/arc/arc_Libro5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvanrivera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB1982-F472-4F8E-AFF9-065ADD0F1DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CE0E6-7F3E-4FAB-AF9A-866A5FB8C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2760" windowWidth="13350" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
+    <workbookView xWindow="11895" yWindow="2385" windowWidth="13350" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="B2:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/arc/arc_Libro5.xlsx
+++ b/arc/arc_Libro5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvanrivera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777CE0E6-7F3E-4FAB-AF9A-866A5FB8C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6C1F0-C6A6-4FB9-A6A4-5E2FBF5968CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="2385" windowWidth="13350" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
+    <workbookView xWindow="13140" yWindow="2730" windowWidth="13350" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>DUVAN RIVERA</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>15Z8CK3</t>
-  </si>
-  <si>
-    <t>PF3L4PPA</t>
   </si>
   <si>
     <t>PF3E91QV</t>
@@ -495,7 +492,7 @@
   <dimension ref="B2:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +562,8 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -612,7 +609,7 @@
     </row>
     <row r="5" spans="2:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9">
         <v>13</v>
